--- a/datasets/tomography.xlsx
+++ b/datasets/tomography.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\aina-foundations-of-analytics\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\aina-foundations-of-analytics\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CC07A7-F01D-448B-BCE4-EB40F8CAD056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB17CBD-0A24-4ECA-9EAE-114CDACB7E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Group1_200" sheetId="1" r:id="rId3"/>
-    <sheet name="Group2_100" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="Group3_100" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Group1_200" sheetId="1" r:id="rId2"/>
+    <sheet name="Group2_100" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Group3_100" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>No.</t>
   </si>
@@ -62,48 +61,12 @@
   <si>
     <t>id</t>
   </si>
-  <si>
-    <t>t-Test: Paired Two Sample for Means</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Pearson Correlation</t>
-  </si>
-  <si>
-    <t>Hypothesized Mean Difference</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) one-tail</t>
-  </si>
-  <si>
-    <t>t Critical one-tail</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) two-tail</t>
-  </si>
-  <si>
-    <t>t Critical two-tail</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,15 +142,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -221,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -364,26 +318,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -391,7 +325,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,15 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,7 +775,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -871,147 +796,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065BE7CA-FF51-4385-8C70-B6A77BC5348F}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1"/>
-    <row r="3" spans="1:3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="35">
-        <v>4525.8249999999998</v>
-      </c>
-      <c r="C4" s="35">
-        <v>4539.8950000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="35">
-        <v>1116111.8737437185</v>
-      </c>
-      <c r="C5" s="35">
-        <v>1019194.8482160808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="35">
-        <v>200</v>
-      </c>
-      <c r="C6" s="35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="35">
-        <v>0.81780194456708211</v>
-      </c>
-      <c r="C7" s="35"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="35">
-        <v>0</v>
-      </c>
-      <c r="C8" s="35"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="35">
-        <v>199</v>
-      </c>
-      <c r="C9" s="35"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="35">
-        <v>-0.31827677584963782</v>
-      </c>
-      <c r="C10" s="35"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="35">
-        <v>0.37530438324784199</v>
-      </c>
-      <c r="C11" s="35"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="35">
-        <v>1.6525467461665586</v>
-      </c>
-      <c r="C12" s="35"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="35">
-        <v>0.75060876649568398</v>
-      </c>
-      <c r="C13" s="35"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="36">
-        <v>1.9719565442517553</v>
-      </c>
-      <c r="C14" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
@@ -1020,13 +804,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.1015625" style="33" customWidth="1"/>
     <col min="2" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.2">
+    <row r="1" spans="1:3" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.2">
+    <row r="2" spans="1:3" ht="13.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1048,7 +832,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.2">
+    <row r="3" spans="1:3" ht="13.8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1059,7 +843,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.2">
+    <row r="4" spans="1:3" ht="13.8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1070,7 +854,7 @@
         <v>4505</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.2">
+    <row r="5" spans="1:3" ht="13.8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1081,7 +865,7 @@
         <v>6472</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.2">
+    <row r="6" spans="1:3" ht="13.8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1092,7 +876,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.2">
+    <row r="7" spans="1:3" ht="13.8">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1103,7 +887,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.2">
+    <row r="8" spans="1:3" ht="13.8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1114,7 +898,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.2">
+    <row r="9" spans="1:3" ht="13.8">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1125,7 +909,7 @@
         <v>6683</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.2">
+    <row r="10" spans="1:3" ht="13.8">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1136,7 +920,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.2">
+    <row r="11" spans="1:3" ht="13.8">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1147,7 +931,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.2">
+    <row r="12" spans="1:3" ht="13.8">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1158,7 +942,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.2">
+    <row r="13" spans="1:3" ht="13.8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1169,7 +953,7 @@
         <v>5492</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.2">
+    <row r="14" spans="1:3" ht="13.8">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1180,7 +964,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.2">
+    <row r="15" spans="1:3" ht="13.8">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1191,7 +975,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.2">
+    <row r="16" spans="1:3" ht="13.8">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1202,7 +986,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.2">
+    <row r="17" spans="1:3" ht="13.8">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1213,7 +997,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.2">
+    <row r="18" spans="1:3" ht="13.8">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1224,7 +1008,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.2">
+    <row r="19" spans="1:3" ht="13.8">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1235,7 +1019,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.2">
+    <row r="20" spans="1:3" ht="13.8">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1246,7 +1030,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.2">
+    <row r="21" spans="1:3" ht="13.8">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1257,7 +1041,7 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.2">
+    <row r="22" spans="1:3" ht="13.8">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1268,7 +1052,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.2">
+    <row r="23" spans="1:3" ht="13.8">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1279,7 +1063,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.2">
+    <row r="24" spans="1:3" ht="13.8">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1290,7 +1074,7 @@
         <v>4628</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.2">
+    <row r="25" spans="1:3" ht="13.8">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1301,7 +1085,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.2">
+    <row r="26" spans="1:3" ht="13.8">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1312,7 +1096,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.2">
+    <row r="27" spans="1:3" ht="13.8">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1323,7 +1107,7 @@
         <v>5437</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.2">
+    <row r="28" spans="1:3" ht="13.8">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1334,7 +1118,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13.2">
+    <row r="29" spans="1:3" ht="13.8">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1345,7 +1129,7 @@
         <v>5848</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.2">
+    <row r="30" spans="1:3" ht="13.8">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1356,7 +1140,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.2">
+    <row r="31" spans="1:3" ht="13.8">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1367,7 +1151,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.2">
+    <row r="32" spans="1:3" ht="13.8">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1378,7 +1162,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.2">
+    <row r="33" spans="1:3" ht="13.8">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1389,7 +1173,7 @@
         <v>5333</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.2">
+    <row r="34" spans="1:3" ht="13.8">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1400,7 +1184,7 @@
         <v>4768</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.2">
+    <row r="35" spans="1:3" ht="13.8">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1411,7 +1195,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.2">
+    <row r="36" spans="1:3" ht="13.8">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1422,7 +1206,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.2">
+    <row r="37" spans="1:3" ht="13.8">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1433,7 +1217,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.2">
+    <row r="38" spans="1:3" ht="13.8">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1444,7 +1228,7 @@
         <v>6979</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.2">
+    <row r="39" spans="1:3" ht="13.8">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1455,7 +1239,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="13.2">
+    <row r="40" spans="1:3" ht="13.8">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1466,7 +1250,7 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.2">
+    <row r="41" spans="1:3" ht="13.8">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1477,7 +1261,7 @@
         <v>6284</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.2">
+    <row r="42" spans="1:3" ht="13.8">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1488,7 +1272,7 @@
         <v>5625</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.2">
+    <row r="43" spans="1:3" ht="13.8">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1499,7 +1283,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.2">
+    <row r="44" spans="1:3" ht="13.8">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1510,7 +1294,7 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.2">
+    <row r="45" spans="1:3" ht="13.8">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1521,7 +1305,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.2">
+    <row r="46" spans="1:3" ht="13.8">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1532,7 +1316,7 @@
         <v>4357</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.2">
+    <row r="47" spans="1:3" ht="13.8">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1543,7 +1327,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.2">
+    <row r="48" spans="1:3" ht="13.8">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1554,7 +1338,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.2">
+    <row r="49" spans="1:3" ht="13.8">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1565,7 +1349,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.2">
+    <row r="50" spans="1:3" ht="13.8">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1576,7 +1360,7 @@
         <v>6359</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.2">
+    <row r="51" spans="1:3" ht="13.8">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1587,7 +1371,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.2">
+    <row r="52" spans="1:3" ht="13.8">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1598,7 +1382,7 @@
         <v>5562</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.2">
+    <row r="53" spans="1:3" ht="13.8">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1609,7 +1393,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.2">
+    <row r="54" spans="1:3" ht="13.8">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1620,7 +1404,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.2">
+    <row r="55" spans="1:3" ht="13.8">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1631,7 +1415,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.2">
+    <row r="56" spans="1:3" ht="13.8">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1642,7 +1426,7 @@
         <v>4686</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.2">
+    <row r="57" spans="1:3" ht="13.8">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1653,7 +1437,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.2">
+    <row r="58" spans="1:3" ht="13.8">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1664,7 +1448,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.2">
+    <row r="59" spans="1:3" ht="13.8">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1675,7 +1459,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.2">
+    <row r="60" spans="1:3" ht="13.8">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1686,7 +1470,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.2">
+    <row r="61" spans="1:3" ht="13.8">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -1697,7 +1481,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.2">
+    <row r="62" spans="1:3" ht="13.8">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -1708,7 +1492,7 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.2">
+    <row r="63" spans="1:3" ht="13.8">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1719,7 +1503,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.2">
+    <row r="64" spans="1:3" ht="13.8">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -1730,7 +1514,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.2">
+    <row r="65" spans="1:3" ht="13.8">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1741,7 +1525,7 @@
         <v>4745</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13.2">
+    <row r="66" spans="1:3" ht="13.8">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -1752,7 +1536,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13.2">
+    <row r="67" spans="1:3" ht="13.8">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -1763,7 +1547,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13.2">
+    <row r="68" spans="1:3" ht="13.8">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -1774,7 +1558,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13.2">
+    <row r="69" spans="1:3" ht="13.8">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -1785,7 +1569,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13.2">
+    <row r="70" spans="1:3" ht="13.8">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -1796,7 +1580,7 @@
         <v>4581</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13.2">
+    <row r="71" spans="1:3" ht="13.8">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -1807,7 +1591,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13.2">
+    <row r="72" spans="1:3" ht="13.8">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -1818,7 +1602,7 @@
         <v>4874</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13.2">
+    <row r="73" spans="1:3" ht="13.8">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -1829,7 +1613,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="13.2">
+    <row r="74" spans="1:3" ht="13.8">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -1840,7 +1624,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.2">
+    <row r="75" spans="1:3" ht="13.8">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -1851,7 +1635,7 @@
         <v>5049</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.2">
+    <row r="76" spans="1:3" ht="13.8">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -1862,7 +1646,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13.2">
+    <row r="77" spans="1:3" ht="13.8">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -1873,7 +1657,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13.2">
+    <row r="78" spans="1:3" ht="13.8">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -1884,7 +1668,7 @@
         <v>4901</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="13.2">
+    <row r="79" spans="1:3" ht="13.8">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -1895,7 +1679,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="13.2">
+    <row r="80" spans="1:3" ht="13.8">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -1906,7 +1690,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13.2">
+    <row r="81" spans="1:3" ht="13.8">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -1917,7 +1701,7 @@
         <v>5827</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13.2">
+    <row r="82" spans="1:3" ht="13.8">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -1928,7 +1712,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13.2">
+    <row r="83" spans="1:3" ht="13.8">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -1939,7 +1723,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13.2">
+    <row r="84" spans="1:3" ht="13.8">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -1950,7 +1734,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13.2">
+    <row r="85" spans="1:3" ht="13.8">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -1961,7 +1745,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13.2">
+    <row r="86" spans="1:3" ht="13.8">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -1972,7 +1756,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13.2">
+    <row r="87" spans="1:3" ht="13.8">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -1983,7 +1767,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13.2">
+    <row r="88" spans="1:3" ht="13.8">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -1994,7 +1778,7 @@
         <v>4859</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13.2">
+    <row r="89" spans="1:3" ht="13.8">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -2005,7 +1789,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13.2">
+    <row r="90" spans="1:3" ht="13.8">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -2016,7 +1800,7 @@
         <v>6381</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13.2">
+    <row r="91" spans="1:3" ht="13.8">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -2027,7 +1811,7 @@
         <v>4863</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13.2">
+    <row r="92" spans="1:3" ht="13.8">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2038,7 +1822,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="13.2">
+    <row r="93" spans="1:3" ht="13.8">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -2049,7 +1833,7 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="13.2">
+    <row r="94" spans="1:3" ht="13.8">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -2060,7 +1844,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13.2">
+    <row r="95" spans="1:3" ht="13.8">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -2071,7 +1855,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13.2">
+    <row r="96" spans="1:3" ht="13.8">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -2082,7 +1866,7 @@
         <v>4013</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="13.2">
+    <row r="97" spans="1:3" ht="13.8">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -2093,7 +1877,7 @@
         <v>5378</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="13.2">
+    <row r="98" spans="1:3" ht="13.8">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -2104,7 +1888,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13.2">
+    <row r="99" spans="1:3" ht="13.8">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -2115,7 +1899,7 @@
         <v>5387</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13.2">
+    <row r="100" spans="1:3" ht="13.8">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2126,7 +1910,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13.2">
+    <row r="101" spans="1:3" ht="13.8">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -2137,7 +1921,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="13.2">
+    <row r="102" spans="1:3" ht="13.8">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -2148,7 +1932,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="13.2">
+    <row r="103" spans="1:3" ht="13.8">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -2159,7 +1943,7 @@
         <v>6016</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="13.2">
+    <row r="104" spans="1:3" ht="13.8">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -2170,7 +1954,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="13.2">
+    <row r="105" spans="1:3" ht="13.8">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -2181,7 +1965,7 @@
         <v>5261</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="13.2">
+    <row r="106" spans="1:3" ht="13.8">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -2192,7 +1976,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="13.2">
+    <row r="107" spans="1:3" ht="13.8">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -2203,7 +1987,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="13.2">
+    <row r="108" spans="1:3" ht="13.8">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -2214,7 +1998,7 @@
         <v>6239</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="13.2">
+    <row r="109" spans="1:3" ht="13.8">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -2225,7 +2009,7 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="13.2">
+    <row r="110" spans="1:3" ht="13.8">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -2236,7 +2020,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13.2">
+    <row r="111" spans="1:3" ht="13.8">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -2247,7 +2031,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="13.2">
+    <row r="112" spans="1:3" ht="13.8">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -2258,7 +2042,7 @@
         <v>3608</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="13.2">
+    <row r="113" spans="1:3" ht="13.8">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -2269,7 +2053,7 @@
         <v>5512</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="13.2">
+    <row r="114" spans="1:3" ht="13.8">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -2280,7 +2064,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="13.2">
+    <row r="115" spans="1:3" ht="13.8">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -2291,7 +2075,7 @@
         <v>5817</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="13.2">
+    <row r="116" spans="1:3" ht="13.8">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -2302,7 +2086,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="13.2">
+    <row r="117" spans="1:3" ht="13.8">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -2313,7 +2097,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="13.2">
+    <row r="118" spans="1:3" ht="13.8">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -2324,7 +2108,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="13.2">
+    <row r="119" spans="1:3" ht="13.8">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -2335,7 +2119,7 @@
         <v>5162</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="13.2">
+    <row r="120" spans="1:3" ht="13.8">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -2346,7 +2130,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="13.2">
+    <row r="121" spans="1:3" ht="13.8">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -2357,7 +2141,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="13.2">
+    <row r="122" spans="1:3" ht="13.8">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -2368,7 +2152,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="13.2">
+    <row r="123" spans="1:3" ht="13.8">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -2379,7 +2163,7 @@
         <v>4837</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="13.2">
+    <row r="124" spans="1:3" ht="13.8">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -2390,7 +2174,7 @@
         <v>6251</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="13.2">
+    <row r="125" spans="1:3" ht="13.8">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -2401,7 +2185,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="13.2">
+    <row r="126" spans="1:3" ht="13.8">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -2412,7 +2196,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="13.2">
+    <row r="127" spans="1:3" ht="13.8">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -2423,7 +2207,7 @@
         <v>5770</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="13.2">
+    <row r="128" spans="1:3" ht="13.8">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -2434,7 +2218,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="13.2">
+    <row r="129" spans="1:3" ht="13.8">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -2445,7 +2229,7 @@
         <v>4562</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="13.2">
+    <row r="130" spans="1:3" ht="13.8">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -2456,7 +2240,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="13.2">
+    <row r="131" spans="1:3" ht="13.8">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -2467,7 +2251,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13.2">
+    <row r="132" spans="1:3" ht="13.8">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -2478,7 +2262,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13.2">
+    <row r="133" spans="1:3" ht="13.8">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -2489,7 +2273,7 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13.2">
+    <row r="134" spans="1:3" ht="13.8">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -2500,7 +2284,7 @@
         <v>4989</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="13.2">
+    <row r="135" spans="1:3" ht="13.8">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -2511,7 +2295,7 @@
         <v>5834</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13.2">
+    <row r="136" spans="1:3" ht="13.8">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -2522,7 +2306,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13.2">
+    <row r="137" spans="1:3" ht="13.8">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -2533,7 +2317,7 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13.2">
+    <row r="138" spans="1:3" ht="13.8">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -2544,7 +2328,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="13.2">
+    <row r="139" spans="1:3" ht="13.8">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -2555,7 +2339,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="13.2">
+    <row r="140" spans="1:3" ht="13.8">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -2566,7 +2350,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="13.2">
+    <row r="141" spans="1:3" ht="13.8">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -2577,7 +2361,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="13.2">
+    <row r="142" spans="1:3" ht="13.8">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -2588,7 +2372,7 @@
         <v>5964</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="13.2">
+    <row r="143" spans="1:3" ht="13.8">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -2599,7 +2383,7 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="13.2">
+    <row r="144" spans="1:3" ht="13.8">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -2610,7 +2394,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="13.2">
+    <row r="145" spans="1:3" ht="13.8">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -2621,7 +2405,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="13.2">
+    <row r="146" spans="1:3" ht="13.8">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -2632,7 +2416,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="13.2">
+    <row r="147" spans="1:3" ht="13.8">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -2643,7 +2427,7 @@
         <v>4836</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="13.2">
+    <row r="148" spans="1:3" ht="13.8">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -2654,7 +2438,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="13.2">
+    <row r="149" spans="1:3" ht="13.8">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -2665,7 +2449,7 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="13.2">
+    <row r="150" spans="1:3" ht="13.8">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -2676,7 +2460,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="13.2">
+    <row r="151" spans="1:3" ht="13.8">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -2687,7 +2471,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="13.2">
+    <row r="152" spans="1:3" ht="13.8">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -2698,7 +2482,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="13.2">
+    <row r="153" spans="1:3" ht="13.8">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -2709,7 +2493,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="13.2">
+    <row r="154" spans="1:3" ht="13.8">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -2720,7 +2504,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="13.2">
+    <row r="155" spans="1:3" ht="13.8">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -2731,7 +2515,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="13.2">
+    <row r="156" spans="1:3" ht="13.8">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -2742,7 +2526,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="13.2">
+    <row r="157" spans="1:3" ht="13.8">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -2753,7 +2537,7 @@
         <v>4702</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="13.2">
+    <row r="158" spans="1:3" ht="13.8">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -2764,7 +2548,7 @@
         <v>4594</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="13.2">
+    <row r="159" spans="1:3" ht="13.8">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -2775,7 +2559,7 @@
         <v>4619</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="13.2">
+    <row r="160" spans="1:3" ht="13.8">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -2786,7 +2570,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13.2">
+    <row r="161" spans="1:3" ht="13.8">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -2797,7 +2581,7 @@
         <v>5617</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="13.2">
+    <row r="162" spans="1:3" ht="13.8">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -2808,7 +2592,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="13.2">
+    <row r="163" spans="1:3" ht="13.8">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -2819,7 +2603,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="13.2">
+    <row r="164" spans="1:3" ht="13.8">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -2830,7 +2614,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="13.2">
+    <row r="165" spans="1:3" ht="13.8">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -2841,7 +2625,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13.2">
+    <row r="166" spans="1:3" ht="13.8">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -2852,7 +2636,7 @@
         <v>5831</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="13.2">
+    <row r="167" spans="1:3" ht="13.8">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -2863,7 +2647,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="13.2">
+    <row r="168" spans="1:3" ht="13.8">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -2874,7 +2658,7 @@
         <v>5943</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="13.2">
+    <row r="169" spans="1:3" ht="13.8">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -2885,7 +2669,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="13.2">
+    <row r="170" spans="1:3" ht="13.8">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -2896,7 +2680,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="13.2">
+    <row r="171" spans="1:3" ht="13.8">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -2907,7 +2691,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="13.2">
+    <row r="172" spans="1:3" ht="13.8">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -2918,7 +2702,7 @@
         <v>5442</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="13.2">
+    <row r="173" spans="1:3" ht="13.8">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -2929,7 +2713,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="13.2">
+    <row r="174" spans="1:3" ht="13.8">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -2940,7 +2724,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="13.2">
+    <row r="175" spans="1:3" ht="13.8">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -2951,7 +2735,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="13.2">
+    <row r="176" spans="1:3" ht="13.8">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -2962,7 +2746,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="13.2">
+    <row r="177" spans="1:3" ht="13.8">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -2973,7 +2757,7 @@
         <v>6541</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="13.2">
+    <row r="178" spans="1:3" ht="13.8">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -2984,7 +2768,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="13.2">
+    <row r="179" spans="1:3" ht="13.8">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -2995,7 +2779,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="13.2">
+    <row r="180" spans="1:3" ht="13.8">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -3006,7 +2790,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="13.2">
+    <row r="181" spans="1:3" ht="13.8">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -3017,7 +2801,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="13.2">
+    <row r="182" spans="1:3" ht="13.8">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -3028,7 +2812,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="13.2">
+    <row r="183" spans="1:3" ht="13.8">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -3039,7 +2823,7 @@
         <v>4564</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="13.2">
+    <row r="184" spans="1:3" ht="13.8">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -3050,7 +2834,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="13.2">
+    <row r="185" spans="1:3" ht="13.8">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -3061,7 +2845,7 @@
         <v>4788</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="13.2">
+    <row r="186" spans="1:3" ht="13.8">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -3072,7 +2856,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="13.2">
+    <row r="187" spans="1:3" ht="13.8">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -3083,7 +2867,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="13.2">
+    <row r="188" spans="1:3" ht="13.8">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -3094,7 +2878,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="13.2">
+    <row r="189" spans="1:3" ht="13.8">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -3105,7 +2889,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="13.2">
+    <row r="190" spans="1:3" ht="13.8">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -3116,7 +2900,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="13.2">
+    <row r="191" spans="1:3" ht="13.8">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -3127,7 +2911,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="13.2">
+    <row r="192" spans="1:3" ht="13.8">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -3138,7 +2922,7 @@
         <v>5165</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="13.2">
+    <row r="193" spans="1:3" ht="13.8">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -3149,7 +2933,7 @@
         <v>5210</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="13.2">
+    <row r="194" spans="1:3" ht="13.8">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -3160,7 +2944,7 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="13.2">
+    <row r="195" spans="1:3" ht="13.8">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -3171,7 +2955,7 @@
         <v>5159</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="13.2">
+    <row r="196" spans="1:3" ht="13.8">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -3182,7 +2966,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="13.2">
+    <row r="197" spans="1:3" ht="13.8">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -3193,7 +2977,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="13.2">
+    <row r="198" spans="1:3" ht="13.8">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -3204,7 +2988,7 @@
         <v>5695</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="13.2">
+    <row r="199" spans="1:3" ht="13.8">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -3215,7 +2999,7 @@
         <v>4282</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="13.2">
+    <row r="200" spans="1:3" ht="13.8">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -3226,7 +3010,7 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="13.8" thickBot="1">
+    <row r="201" spans="1:3" ht="14.1" thickBot="1">
       <c r="A201" s="6">
         <v>200</v>
       </c>
@@ -3243,7 +3027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -3253,9 +3037,9 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="6.20703125" style="21" customWidth="1"/>
     <col min="2" max="3" width="9" style="21"/>
     <col min="4" max="16384" width="9" style="33"/>
   </cols>
@@ -4360,7 +4144,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" ht="12.9">
       <c r="A101" s="16">
         <v>100</v>
       </c>
@@ -4377,7 +4161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -4387,9 +4171,9 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="4.7890625" style="33" customWidth="1"/>
     <col min="2" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
@@ -4525,7 +4309,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="12.9">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -4690,7 +4474,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="12.9">
       <c r="A28" s="26">
         <v>27</v>
       </c>
@@ -4767,7 +4551,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="12.9">
       <c r="A35" s="26">
         <v>34</v>
       </c>
@@ -4822,7 +4606,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="12.9">
       <c r="A40" s="26">
         <v>39</v>
       </c>
@@ -4833,7 +4617,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="12.9">
       <c r="A41" s="26">
         <v>40</v>
       </c>
@@ -4954,7 +4738,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="12.9">
       <c r="A52" s="26">
         <v>51</v>
       </c>
@@ -5075,7 +4859,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="12.9">
       <c r="A63" s="26">
         <v>62</v>
       </c>
@@ -5185,7 +4969,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" ht="12.9">
       <c r="A73" s="26">
         <v>72</v>
       </c>
@@ -5240,7 +5024,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="12.9">
       <c r="A78" s="26">
         <v>77</v>
       </c>
@@ -5493,7 +5277,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="12.6" thickBot="1">
+    <row r="101" spans="1:3" ht="12" thickBot="1">
       <c r="A101" s="34">
         <v>100</v>
       </c>
